--- a/SetupDevice/BLUEMAX/FwTestForm.xlsx
+++ b/SetupDevice/BLUEMAX/FwTestForm.xlsx
@@ -5,122 +5,80 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Script\SetupDevice\BLUEMAX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python_dir\Script\SetupDevice\BLUEMAX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11952"/>
   </bookViews>
   <sheets>
     <sheet name="설계(수정)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'설계(수정)'!$A$1:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'설계(수정)'!$A$1:$E$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>haCls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>지원청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>학교명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UTMIP(SK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3_VIP(KT)</t>
   </si>
   <si>
     <t>완료여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_PingTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_PingTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_Eth12 Linkup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_Eth12 Linkup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HA</t>
+  </si>
+  <si>
+    <t>본청</t>
+  </si>
+  <si>
+    <t>서울특별시교육청교육연구정보원(본원)</t>
+  </si>
+  <si>
+    <t>192.168.10.10</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
   <si>
     <t>SA</t>
   </si>
   <si>
-    <t>본청</t>
-  </si>
-  <si>
-    <t>서울특별시교육청교육연구정보원(본원)</t>
-  </si>
-  <si>
     <t>서울특별시교육청교육연구정보원(인프라운영과[정보자원재해복구센터])</t>
   </si>
   <si>
-    <t>10.137.101.90</t>
-  </si>
-  <si>
     <t>서울특별시교육청교육연구정보원(교수학습정보부[신설동])</t>
   </si>
   <si>
     <t>10.137.61.118</t>
   </si>
   <si>
-    <t>10.137.101.98</t>
-  </si>
-  <si>
-    <t>192.168.10.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>서울특별시교육청교육연구정보원(교수학습정보부[신설동])1</t>
+  </si>
+  <si>
+    <t>192.168.10.11</t>
+  </si>
+  <si>
+    <t>서울특별시교육청교육연구정보원(교수학습정보부[신설동])2</t>
   </si>
   <si>
     <t>192.168.10.254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.10.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시교육청교육연구정보원(교수학습정보부[신설동])1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울특별시교육청교육연구정보원(교수학습정보부[신설동])2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,41 +140,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -563,29 +502,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="67.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="9" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="67.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,49 +537,35 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1"/>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>947</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>948</v>
       </c>
@@ -651,19 +573,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>950</v>
       </c>
@@ -671,22 +587,17 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>950</v>
       </c>
@@ -694,87 +605,67 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>950</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F4"/>
+  <autoFilter ref="A1:E4"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1 I1:J1 C1:G1 B2:B4">
-    <cfRule type="cellIs" dxfId="8" priority="21" operator="equal">
+  <conditionalFormatting sqref="A1 B2:B4 C1:G1">
+    <cfRule type="cellIs" dxfId="6" priority="28" operator="equal">
       <formula>"없음"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"없음"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"없음"</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"없음"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>"없음"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"없음"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>